--- a/public/测量仪器模板.xlsx
+++ b/public/测量仪器模板.xlsx
@@ -70,9 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -142,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,9 +153,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -493,10 +491,13 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="8" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">

--- a/public/测量仪器模板.xlsx
+++ b/public/测量仪器模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -64,13 +64,63 @@
   </si>
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>12个月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>合格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1602-PO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>静电检测仪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSD-0109</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本春日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80113/80126</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测物品静电</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,16 +144,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,11 +239,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -153,12 +278,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,15 +636,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="8" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -546,9 +698,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43716</v>
+      </c>
+      <c r="H2" s="10">
+        <f>G2+365</f>
+        <v>44081</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
